--- a/data/04-12-2025-employee_designations.xlsx
+++ b/data/04-12-2025-employee_designations.xlsx
@@ -1617,7 +1617,7 @@
         <v>45879</v>
       </c>
       <c r="F2" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1637,7 +1637,7 @@
         <v>45879</v>
       </c>
       <c r="F3" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1657,7 +1657,7 @@
         <v>45879</v>
       </c>
       <c r="F4" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1677,7 +1677,7 @@
         <v>45879</v>
       </c>
       <c r="F5" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1697,7 +1697,7 @@
         <v>45879</v>
       </c>
       <c r="F6" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1717,7 +1717,7 @@
         <v>45879</v>
       </c>
       <c r="F7" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1737,7 +1737,7 @@
         <v>45879</v>
       </c>
       <c r="F8" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1757,7 +1757,7 @@
         <v>45879</v>
       </c>
       <c r="F9" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1777,7 +1777,7 @@
         <v>45879</v>
       </c>
       <c r="F10" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1797,7 +1797,7 @@
         <v>45879</v>
       </c>
       <c r="F11" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1817,7 +1817,7 @@
         <v>45879</v>
       </c>
       <c r="F12" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1837,7 +1837,7 @@
         <v>45879</v>
       </c>
       <c r="F13" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1857,7 +1857,7 @@
         <v>45879</v>
       </c>
       <c r="F14" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1877,7 +1877,7 @@
         <v>45879</v>
       </c>
       <c r="F15" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1897,7 +1897,7 @@
         <v>45879</v>
       </c>
       <c r="F16" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1917,7 +1917,7 @@
         <v>45879</v>
       </c>
       <c r="F17" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1937,7 +1937,7 @@
         <v>45879</v>
       </c>
       <c r="F18" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1957,7 +1957,7 @@
         <v>45879</v>
       </c>
       <c r="F19" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1977,7 +1977,7 @@
         <v>45879</v>
       </c>
       <c r="F20" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1997,7 +1997,7 @@
         <v>45879</v>
       </c>
       <c r="F21" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2017,7 +2017,7 @@
         <v>45879</v>
       </c>
       <c r="F22" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2037,7 +2037,7 @@
         <v>45879</v>
       </c>
       <c r="F23" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2057,7 +2057,7 @@
         <v>45879</v>
       </c>
       <c r="F24" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2077,7 +2077,7 @@
         <v>45879</v>
       </c>
       <c r="F25" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2097,7 +2097,7 @@
         <v>45879</v>
       </c>
       <c r="F26" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2117,7 +2117,7 @@
         <v>45879</v>
       </c>
       <c r="F27" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2137,7 +2137,7 @@
         <v>45879</v>
       </c>
       <c r="F28" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2157,7 +2157,7 @@
         <v>45879</v>
       </c>
       <c r="F29" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2177,7 +2177,7 @@
         <v>45879</v>
       </c>
       <c r="F30" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2197,7 +2197,7 @@
         <v>45879</v>
       </c>
       <c r="F31" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2217,7 +2217,7 @@
         <v>45879</v>
       </c>
       <c r="F32" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2237,7 +2237,7 @@
         <v>45879</v>
       </c>
       <c r="F33" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2257,7 +2257,7 @@
         <v>45879</v>
       </c>
       <c r="F34" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2277,7 +2277,7 @@
         <v>45879</v>
       </c>
       <c r="F35" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2297,7 +2297,7 @@
         <v>45879</v>
       </c>
       <c r="F36" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2317,7 +2317,7 @@
         <v>45879</v>
       </c>
       <c r="F37" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2337,7 +2337,7 @@
         <v>45879</v>
       </c>
       <c r="F38" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2357,7 +2357,7 @@
         <v>45879</v>
       </c>
       <c r="F39" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2377,7 +2377,7 @@
         <v>45879</v>
       </c>
       <c r="F40" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2397,7 +2397,7 @@
         <v>45879</v>
       </c>
       <c r="F41" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2415,7 +2415,7 @@
         <v>45879</v>
       </c>
       <c r="F42" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2433,7 +2433,7 @@
         <v>45879</v>
       </c>
       <c r="F43" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2451,7 +2451,7 @@
         <v>45879</v>
       </c>
       <c r="F44" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2469,7 +2469,7 @@
         <v>45879</v>
       </c>
       <c r="F45" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2487,7 +2487,7 @@
         <v>45879</v>
       </c>
       <c r="F46" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2505,7 +2505,7 @@
         <v>45879</v>
       </c>
       <c r="F47" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2523,7 +2523,7 @@
         <v>45879</v>
       </c>
       <c r="F48" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2541,7 +2541,7 @@
         <v>45879</v>
       </c>
       <c r="F49" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2559,7 +2559,7 @@
         <v>45879</v>
       </c>
       <c r="F50" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2577,7 +2577,7 @@
         <v>45879</v>
       </c>
       <c r="F51" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2595,7 +2595,7 @@
         <v>45879</v>
       </c>
       <c r="F52" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2613,7 +2613,7 @@
         <v>45879</v>
       </c>
       <c r="F53" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2631,7 +2631,7 @@
         <v>45879</v>
       </c>
       <c r="F54" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2649,7 +2649,7 @@
         <v>45879</v>
       </c>
       <c r="F55" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2667,7 +2667,7 @@
         <v>45879</v>
       </c>
       <c r="F56" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2685,7 +2685,7 @@
         <v>45879</v>
       </c>
       <c r="F57" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2703,7 +2703,7 @@
         <v>45879</v>
       </c>
       <c r="F58" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2723,7 +2723,7 @@
         <v>45879</v>
       </c>
       <c r="F59" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2743,7 +2743,7 @@
         <v>45879</v>
       </c>
       <c r="F60" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2761,7 +2761,7 @@
         <v>45879</v>
       </c>
       <c r="F61" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2781,7 +2781,7 @@
         <v>45879</v>
       </c>
       <c r="F62" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2799,7 +2799,7 @@
         <v>45879</v>
       </c>
       <c r="F63" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2817,7 +2817,7 @@
         <v>45879</v>
       </c>
       <c r="F64" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2837,7 +2837,7 @@
         <v>45879</v>
       </c>
       <c r="F65" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2857,7 +2857,7 @@
         <v>45879</v>
       </c>
       <c r="F66" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="67" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2877,7 +2877,7 @@
         <v>45879</v>
       </c>
       <c r="F67" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="68" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2897,7 +2897,7 @@
         <v>45879</v>
       </c>
       <c r="F68" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="69" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2915,7 +2915,7 @@
         <v>45879</v>
       </c>
       <c r="F69" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="70" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2933,7 +2933,7 @@
         <v>45879</v>
       </c>
       <c r="F70" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="71" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2951,7 +2951,7 @@
         <v>45879</v>
       </c>
       <c r="F71" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="72" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2969,7 +2969,7 @@
         <v>45879</v>
       </c>
       <c r="F72" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="73" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2987,7 +2987,7 @@
         <v>45879</v>
       </c>
       <c r="F73" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="74" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3007,7 +3007,7 @@
         <v>45879</v>
       </c>
       <c r="F74" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="75" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3027,7 +3027,7 @@
         <v>45879</v>
       </c>
       <c r="F75" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="76" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3045,7 +3045,7 @@
         <v>45879</v>
       </c>
       <c r="F76" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="77" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3065,7 +3065,7 @@
         <v>45879</v>
       </c>
       <c r="F77" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="78" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3085,7 +3085,7 @@
         <v>45879</v>
       </c>
       <c r="F78" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="79" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3105,7 +3105,7 @@
         <v>45879</v>
       </c>
       <c r="F79" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="80" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3125,7 +3125,7 @@
         <v>45879</v>
       </c>
       <c r="F80" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="81" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3145,7 +3145,7 @@
         <v>45879</v>
       </c>
       <c r="F81" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="82" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3165,7 +3165,7 @@
         <v>45879</v>
       </c>
       <c r="F82" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="83" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3185,7 +3185,7 @@
         <v>45879</v>
       </c>
       <c r="F83" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="84" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3205,7 +3205,7 @@
         <v>45879</v>
       </c>
       <c r="F84" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="85" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3225,7 +3225,7 @@
         <v>45879</v>
       </c>
       <c r="F85" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="86" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3245,7 +3245,7 @@
         <v>45879</v>
       </c>
       <c r="F86" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="87" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3265,7 +3265,7 @@
         <v>45879</v>
       </c>
       <c r="F87" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="88" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3285,7 +3285,7 @@
         <v>45879</v>
       </c>
       <c r="F88" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="89" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3305,7 +3305,7 @@
         <v>45879</v>
       </c>
       <c r="F89" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="90" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3325,7 +3325,7 @@
         <v>45879</v>
       </c>
       <c r="F90" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="91" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3345,7 +3345,7 @@
         <v>45879</v>
       </c>
       <c r="F91" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="92" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3365,7 +3365,7 @@
         <v>45879</v>
       </c>
       <c r="F92" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="93" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3385,7 +3385,7 @@
         <v>45879</v>
       </c>
       <c r="F93" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="94" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3405,7 +3405,7 @@
         <v>45879</v>
       </c>
       <c r="F94" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="95" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3425,7 +3425,7 @@
         <v>45879</v>
       </c>
       <c r="F95" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="96" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3445,7 +3445,7 @@
         <v>45879</v>
       </c>
       <c r="F96" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="97" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3465,7 +3465,7 @@
         <v>45879</v>
       </c>
       <c r="F97" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="98" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3485,7 +3485,7 @@
         <v>45879</v>
       </c>
       <c r="F98" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="99" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3505,7 +3505,7 @@
         <v>45879</v>
       </c>
       <c r="F99" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="100" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3525,7 +3525,7 @@
         <v>45879</v>
       </c>
       <c r="F100" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="101" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3545,7 +3545,7 @@
         <v>45879</v>
       </c>
       <c r="F101" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="102" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3565,7 +3565,7 @@
         <v>45879</v>
       </c>
       <c r="F102" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="103" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3585,7 +3585,7 @@
         <v>45879</v>
       </c>
       <c r="F103" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="104" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3605,7 +3605,7 @@
         <v>45879</v>
       </c>
       <c r="F104" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="105" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3625,7 +3625,7 @@
         <v>45879</v>
       </c>
       <c r="F105" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="106" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3645,7 +3645,7 @@
         <v>45879</v>
       </c>
       <c r="F106" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="107" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3665,7 +3665,7 @@
         <v>45879</v>
       </c>
       <c r="F107" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="108" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3685,7 +3685,7 @@
         <v>45879</v>
       </c>
       <c r="F108" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="109" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3705,7 +3705,7 @@
         <v>45879</v>
       </c>
       <c r="F109" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="110" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3725,7 +3725,7 @@
         <v>45879</v>
       </c>
       <c r="F110" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="111" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3745,7 +3745,7 @@
         <v>45879</v>
       </c>
       <c r="F111" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="112" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3765,7 +3765,7 @@
         <v>45879</v>
       </c>
       <c r="F112" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="113" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3785,7 +3785,7 @@
         <v>45879</v>
       </c>
       <c r="F113" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="114" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3805,7 +3805,7 @@
         <v>45879</v>
       </c>
       <c r="F114" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="115" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3825,7 +3825,7 @@
         <v>45879</v>
       </c>
       <c r="F115" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="116" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3845,7 +3845,7 @@
         <v>45879</v>
       </c>
       <c r="F116" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="117" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3865,7 +3865,7 @@
         <v>45879</v>
       </c>
       <c r="F117" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="118" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3885,7 +3885,7 @@
         <v>45879</v>
       </c>
       <c r="F118" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="119" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3905,7 +3905,7 @@
         <v>45879</v>
       </c>
       <c r="F119" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="120" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3925,7 +3925,7 @@
         <v>45879</v>
       </c>
       <c r="F120" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="121" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3945,7 +3945,7 @@
         <v>45879</v>
       </c>
       <c r="F121" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="122" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3965,7 +3965,7 @@
         <v>45879</v>
       </c>
       <c r="F122" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="123" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3985,7 +3985,7 @@
         <v>45879</v>
       </c>
       <c r="F123" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="124" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4005,7 +4005,7 @@
         <v>45879</v>
       </c>
       <c r="F124" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="125" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4025,7 +4025,7 @@
         <v>45879</v>
       </c>
       <c r="F125" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="126" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4045,7 +4045,7 @@
         <v>45879</v>
       </c>
       <c r="F126" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="127" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4065,7 +4065,7 @@
         <v>45879</v>
       </c>
       <c r="F127" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="128" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4085,7 +4085,7 @@
         <v>45879</v>
       </c>
       <c r="F128" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="129" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4105,7 +4105,7 @@
         <v>45879</v>
       </c>
       <c r="F129" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="130" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4125,7 +4125,7 @@
         <v>45879</v>
       </c>
       <c r="F130" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="131" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4145,7 +4145,7 @@
         <v>45879</v>
       </c>
       <c r="F131" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="132" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4165,7 +4165,7 @@
         <v>45879</v>
       </c>
       <c r="F132" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="133" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4185,7 +4185,7 @@
         <v>45879</v>
       </c>
       <c r="F133" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="134" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4205,7 +4205,7 @@
         <v>45879</v>
       </c>
       <c r="F134" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="135" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4225,7 +4225,7 @@
         <v>45879</v>
       </c>
       <c r="F135" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="136" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4245,7 +4245,7 @@
         <v>45879</v>
       </c>
       <c r="F136" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="137" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4265,7 +4265,7 @@
         <v>45879</v>
       </c>
       <c r="F137" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="138" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4285,7 +4285,7 @@
         <v>45879</v>
       </c>
       <c r="F138" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="139" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4305,7 +4305,7 @@
         <v>45879</v>
       </c>
       <c r="F139" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="140" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4325,7 +4325,7 @@
         <v>45879</v>
       </c>
       <c r="F140" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="141" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4345,7 +4345,7 @@
         <v>45879</v>
       </c>
       <c r="F141" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="142" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4365,7 +4365,7 @@
         <v>45879</v>
       </c>
       <c r="F142" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="143" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4385,7 +4385,7 @@
         <v>45879</v>
       </c>
       <c r="F143" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="144" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4405,7 +4405,7 @@
         <v>45879</v>
       </c>
       <c r="F144" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="145" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4425,7 +4425,7 @@
         <v>45879</v>
       </c>
       <c r="F145" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="146" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4445,7 +4445,7 @@
         <v>45879</v>
       </c>
       <c r="F146" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="147" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4465,7 +4465,7 @@
         <v>45879</v>
       </c>
       <c r="F147" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="148" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4485,7 +4485,7 @@
         <v>45879</v>
       </c>
       <c r="F148" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="149" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4505,7 +4505,7 @@
         <v>45879</v>
       </c>
       <c r="F149" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="150" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4525,7 +4525,7 @@
         <v>45879</v>
       </c>
       <c r="F150" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="151" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4545,7 +4545,7 @@
         <v>45879</v>
       </c>
       <c r="F151" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="152" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4565,7 +4565,7 @@
         <v>45879</v>
       </c>
       <c r="F152" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="153" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4585,7 +4585,7 @@
         <v>45879</v>
       </c>
       <c r="F153" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="154" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4605,7 +4605,7 @@
         <v>45879</v>
       </c>
       <c r="F154" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="155" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4625,7 +4625,7 @@
         <v>45879</v>
       </c>
       <c r="F155" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="156" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4645,7 +4645,7 @@
         <v>45879</v>
       </c>
       <c r="F156" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="157" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4665,7 +4665,7 @@
         <v>45879</v>
       </c>
       <c r="F157" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="158" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4685,7 +4685,7 @@
         <v>45879</v>
       </c>
       <c r="F158" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="159" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4705,7 +4705,7 @@
         <v>45879</v>
       </c>
       <c r="F159" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="160" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4725,7 +4725,7 @@
         <v>45879</v>
       </c>
       <c r="F160" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="161" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4745,7 +4745,7 @@
         <v>45879</v>
       </c>
       <c r="F161" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="162" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4765,7 +4765,7 @@
         <v>45879</v>
       </c>
       <c r="F162" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="163" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4785,7 +4785,7 @@
         <v>45879</v>
       </c>
       <c r="F163" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="164" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4805,7 +4805,7 @@
         <v>45879</v>
       </c>
       <c r="F164" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="165" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4825,7 +4825,7 @@
         <v>45879</v>
       </c>
       <c r="F165" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="166" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4845,7 +4845,7 @@
         <v>45879</v>
       </c>
       <c r="F166" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="167" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4865,7 +4865,7 @@
         <v>45879</v>
       </c>
       <c r="F167" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="168" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4885,7 +4885,7 @@
         <v>45879</v>
       </c>
       <c r="F168" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="169" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4905,7 +4905,7 @@
         <v>45879</v>
       </c>
       <c r="F169" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="170" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4925,7 +4925,7 @@
         <v>45879</v>
       </c>
       <c r="F170" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="171" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4945,7 +4945,7 @@
         <v>45879</v>
       </c>
       <c r="F171" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="172" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4965,7 +4965,7 @@
         <v>45879</v>
       </c>
       <c r="F172" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="173" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4985,7 +4985,7 @@
         <v>45879</v>
       </c>
       <c r="F173" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="174" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -5005,7 +5005,7 @@
         <v>45879</v>
       </c>
       <c r="F174" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="175" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -5025,7 +5025,7 @@
         <v>45879</v>
       </c>
       <c r="F175" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="176" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -5045,7 +5045,7 @@
         <v>45879</v>
       </c>
       <c r="F176" s="3">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="177" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -5063,7 +5063,7 @@
         <v>45879</v>
       </c>
       <c r="F177" s="6">
-        <v>45989</v>
+        <v>45995.52494815973</v>
       </c>
     </row>
     <row r="178" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -5080,10 +5080,10 @@
         <v>9</v>
       </c>
       <c r="E178" s="3">
-        <v>45995.40362376157</v>
+        <v>45995</v>
       </c>
       <c r="F178" s="3">
-        <v>45995.40362376157</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="179" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -5100,10 +5100,10 @@
         <v>9</v>
       </c>
       <c r="E179" s="6">
-        <v>45995.40459818287</v>
+        <v>45995</v>
       </c>
       <c r="F179" s="6">
-        <v>45995.40459818287</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="180" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -5120,10 +5120,10 @@
         <v>9</v>
       </c>
       <c r="E180" s="3">
-        <v>45995.405635138886</v>
+        <v>45995</v>
       </c>
       <c r="F180" s="3">
-        <v>45995.405635138886</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="181" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -5140,10 +5140,10 @@
         <v>9</v>
       </c>
       <c r="E181" s="6">
-        <v>45995.406463900465</v>
+        <v>45995</v>
       </c>
       <c r="F181" s="6">
-        <v>45995.406463900465</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="182" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -5160,10 +5160,10 @@
         <v>9</v>
       </c>
       <c r="E182" s="3">
-        <v>45995.40719763889</v>
+        <v>45995</v>
       </c>
       <c r="F182" s="3">
-        <v>45995.40719763889</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="183" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -5180,10 +5180,10 @@
         <v>9</v>
       </c>
       <c r="E183" s="9">
-        <v>45995.45175688657</v>
+        <v>45995</v>
       </c>
       <c r="F183" s="9">
-        <v>45995.45175688657</v>
+        <v>45995</v>
       </c>
     </row>
   </sheetData>
